--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_40_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_40_9.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.986170870622474</v>
+        <v>0.9733449205630947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7822967830927524</v>
+        <v>0.8188810058376088</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9988175479232139</v>
+        <v>0.970174553422102</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9866001819712931</v>
+        <v>0.9342859351028834</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9884811149748489</v>
+        <v>0.9702880933729793</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09247545182480234</v>
+        <v>0.1782426389299407</v>
       </c>
       <c r="H2" t="n">
-        <v>1.455782413889905</v>
+        <v>1.211143547940194</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003075602528296363</v>
+        <v>0.3321997201866972</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1919524615722815</v>
+        <v>0.205394199218208</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09751403467678259</v>
+        <v>0.2687969597024526</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2023986359737291</v>
+        <v>0.5533872374092709</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3040977668855895</v>
+        <v>0.4221879189767759</v>
       </c>
       <c r="N2" t="n">
-        <v>1.004546563083022</v>
+        <v>1.008763313787476</v>
       </c>
       <c r="O2" t="n">
-        <v>0.317043838391068</v>
+        <v>0.4401613327370909</v>
       </c>
       <c r="P2" t="n">
-        <v>198.7616241107252</v>
+        <v>197.4492190337323</v>
       </c>
       <c r="Q2" t="n">
-        <v>316.9925791229406</v>
+        <v>315.6801740459478</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9874229553814149</v>
+        <v>0.973811296815289</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7801269196877704</v>
+        <v>0.8180406570463203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9958317917392606</v>
+        <v>0.9647996008417997</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9856997447732</v>
+        <v>0.9246404983443257</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9872605944349868</v>
+        <v>0.9653131467398837</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0841027552764443</v>
+        <v>0.1751239787840524</v>
       </c>
       <c r="H3" t="n">
-        <v>1.470292300470322</v>
+        <v>1.21676296417699</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01084166717355597</v>
+        <v>0.3920666441748987</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2048512290253114</v>
+        <v>0.2355417294651266</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1078464480994337</v>
+        <v>0.3138041868200127</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2069729518445146</v>
+        <v>0.5763015210160489</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2900047504377201</v>
+        <v>0.4184781700209133</v>
       </c>
       <c r="N3" t="n">
-        <v>1.004134918778713</v>
+        <v>1.008609984608672</v>
       </c>
       <c r="O3" t="n">
-        <v>0.302350853056447</v>
+        <v>0.4362936520879382</v>
       </c>
       <c r="P3" t="n">
-        <v>198.9514319012642</v>
+        <v>197.4845222113928</v>
       </c>
       <c r="Q3" t="n">
-        <v>317.1823869134797</v>
+        <v>315.7154772236083</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9882668332634441</v>
+        <v>0.97379952407498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7778914435834324</v>
+        <v>0.8168755957355086</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9915260049385235</v>
+        <v>0.9595436113248731</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9848208210258192</v>
+        <v>0.9148393909993962</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9858554867358469</v>
+        <v>0.9603845407121583</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07845973999361434</v>
+        <v>0.1752027031527069</v>
       </c>
       <c r="H4" t="n">
-        <v>1.48524093947345</v>
+        <v>1.224553734527002</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02204118132777466</v>
+        <v>0.4506085420226624</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2174418161872137</v>
+        <v>0.2661758197122486</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1197414987574942</v>
+        <v>0.3583921808674555</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2112431768268761</v>
+        <v>0.5983650286942612</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2801066582457731</v>
+        <v>0.4185722197574833</v>
       </c>
       <c r="N4" t="n">
-        <v>1.003857479475032</v>
+        <v>1.008613855098637</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2920313785880134</v>
+        <v>0.4363917057165038</v>
       </c>
       <c r="P4" t="n">
-        <v>199.0903393041561</v>
+        <v>197.4836233432901</v>
       </c>
       <c r="Q4" t="n">
-        <v>317.3212943163716</v>
+        <v>315.7145783555056</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9887993898975331</v>
+        <v>0.9734383443047882</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7756505633344857</v>
+        <v>0.8154941494994059</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9863597411423343</v>
+        <v>0.9544712235818977</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9839764129656733</v>
+        <v>0.9051047135685897</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9843473916498841</v>
+        <v>0.9555804327496153</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07489853132926318</v>
+        <v>0.1776179139390598</v>
       </c>
       <c r="H5" t="n">
-        <v>1.500225716016462</v>
+        <v>1.233791471868796</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03547882865855866</v>
+        <v>0.5071054593276167</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2295379659535203</v>
+        <v>0.2966022783201348</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1325083973060395</v>
+        <v>0.4018538688238758</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2150260193740801</v>
+        <v>0.6196144269916429</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2736759604518876</v>
+        <v>0.4214474035262998</v>
       </c>
       <c r="N5" t="n">
-        <v>1.003682392362455</v>
+        <v>1.008732599132672</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2853269126756626</v>
+        <v>0.4393892920108098</v>
       </c>
       <c r="P5" t="n">
-        <v>199.1832419941445</v>
+        <v>197.4562411734736</v>
       </c>
       <c r="Q5" t="n">
-        <v>317.41419700636</v>
+        <v>315.6871961856891</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9890963725832995</v>
+        <v>0.9728281759175725</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7734483260693368</v>
+        <v>0.8139795372264245</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9806791555180131</v>
+        <v>0.9496258807506699</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9831743414115407</v>
+        <v>0.8955975402996226</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9827961047724635</v>
+        <v>0.9509553995258558</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07291260674206412</v>
+        <v>0.1816981127539382</v>
       </c>
       <c r="H6" t="n">
-        <v>1.514952086748883</v>
+        <v>1.243919691112371</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0502542464969303</v>
+        <v>0.5610735207458595</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2410276450553582</v>
+        <v>0.3263176557429966</v>
       </c>
       <c r="K6" t="n">
-        <v>0.145640939390463</v>
+        <v>0.443695507755886</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2183924170369259</v>
+        <v>0.6400227436787104</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2700233448094148</v>
+        <v>0.426260616001453</v>
       </c>
       <c r="N6" t="n">
-        <v>1.003584754219189</v>
+        <v>1.008933202438058</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2815187976233329</v>
+        <v>0.4444074129057536</v>
       </c>
       <c r="P6" t="n">
-        <v>199.2369874458573</v>
+        <v>197.4108173804772</v>
       </c>
       <c r="Q6" t="n">
-        <v>317.4679424580727</v>
+        <v>315.6417723926926</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9892170477255262</v>
+        <v>0.9720471030500514</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7713160428390362</v>
+        <v>0.8123949563424623</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9747423744912532</v>
+        <v>0.9450350872599024</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9824191117433516</v>
+        <v>0.8864337500258039</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9812450595467783</v>
+        <v>0.9465463537488551</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07210565151033622</v>
+        <v>0.1869211506155619</v>
       </c>
       <c r="H7" t="n">
-        <v>1.529210674528165</v>
+        <v>1.254515790779751</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06569603825687337</v>
+        <v>0.6122063783573863</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2518463139022581</v>
+        <v>0.35495976406549</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1587714357529557</v>
+        <v>0.4835831566679529</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2213778029542164</v>
+        <v>0.6595563901224856</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2685249550979131</v>
+        <v>0.432343787529741</v>
       </c>
       <c r="N7" t="n">
-        <v>1.003545080199827</v>
+        <v>1.009189993517791</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2799566183597182</v>
+        <v>0.4507495576399019</v>
       </c>
       <c r="P7" t="n">
-        <v>199.2592457068623</v>
+        <v>197.354136811022</v>
       </c>
       <c r="Q7" t="n">
-        <v>317.4902007190777</v>
+        <v>315.5850918232375</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9892076611924305</v>
+        <v>0.9711552545811041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7692752565947532</v>
+        <v>0.8107881163294711</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9687398133048915</v>
+        <v>0.9407139659438758</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9817128076745175</v>
+        <v>0.8776914271745241</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9797253785876281</v>
+        <v>0.9423761485581176</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0721684193003681</v>
+        <v>0.1928849454339973</v>
       </c>
       <c r="H8" t="n">
-        <v>1.542857421540642</v>
+        <v>1.26526073734544</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08130892669731218</v>
+        <v>0.6603355920584337</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2619641232889819</v>
+        <v>0.3822845446000214</v>
       </c>
       <c r="K8" t="n">
-        <v>0.171636415429778</v>
+        <v>0.5213100683292275</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2240421264360042</v>
+        <v>0.6781667960384812</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2686418048263675</v>
+        <v>0.4391866863123213</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003548166183311</v>
+        <v>1.009483203973336</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2800784426230252</v>
+        <v>0.4578837727904098</v>
       </c>
       <c r="P8" t="n">
-        <v>199.2575054691705</v>
+        <v>197.2913228109713</v>
       </c>
       <c r="Q8" t="n">
-        <v>317.488460481386</v>
+        <v>315.5222778231868</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9891041294886579</v>
+        <v>0.9701987605064779</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7673399874240908</v>
+        <v>0.8091943755121082</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9628089865782706</v>
+        <v>0.9366689413550442</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9810557616610888</v>
+        <v>0.8694203862144971</v>
       </c>
       <c r="F9" t="n">
-        <v>0.978258337164571</v>
+        <v>0.9384572964321897</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0728607362802153</v>
+        <v>0.1992810257152723</v>
       </c>
       <c r="H9" t="n">
-        <v>1.555798575395956</v>
+        <v>1.275918089529648</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09673523109762248</v>
+        <v>0.7053896043445045</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2713763107809091</v>
+        <v>0.4081362985182341</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1840557709392658</v>
+        <v>0.556763045150814</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2264214380758718</v>
+        <v>0.695813311637274</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2699272796147423</v>
+        <v>0.4464090340878781</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003582204003729</v>
+        <v>1.009797667778692</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2814186427344409</v>
+        <v>0.4654135908630931</v>
       </c>
       <c r="P9" t="n">
-        <v>199.2384107640844</v>
+        <v>197.226078521871</v>
       </c>
       <c r="Q9" t="n">
-        <v>317.4693657762999</v>
+        <v>315.4570335340865</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9889343545994734</v>
+        <v>0.9692126721559373</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7655184076172551</v>
+        <v>0.8076394866939742</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9570480616870154</v>
+        <v>0.9328997940218838</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9804473121635535</v>
+        <v>0.8616490964649454</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9768585319619828</v>
+        <v>0.9347946207304638</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07399602174593331</v>
+        <v>0.2058750030558566</v>
       </c>
       <c r="H10" t="n">
-        <v>1.567979487951871</v>
+        <v>1.286315638216114</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1117196144047475</v>
+        <v>0.7473708597181009</v>
       </c>
       <c r="J10" t="n">
-        <v>0.280092352934921</v>
+        <v>0.4324260428446712</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1959059328922572</v>
+        <v>0.5898984512813861</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2285442027825367</v>
+        <v>0.7124815099708929</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2720220979000296</v>
+        <v>0.4537345072350753</v>
       </c>
       <c r="N10" t="n">
-        <v>1.003638020405653</v>
+        <v>1.010121861209007</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2836026417710045</v>
+        <v>0.4730509245679864</v>
       </c>
       <c r="P10" t="n">
-        <v>199.2074878948264</v>
+        <v>197.1609721512822</v>
       </c>
       <c r="Q10" t="n">
-        <v>317.4384429070419</v>
+        <v>315.3919271634976</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9887197735273795</v>
+        <v>0.968223091058845</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7638144031411822</v>
+        <v>0.8061416818808999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.951523433897427</v>
+        <v>0.929401228221551</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9798859188906353</v>
+        <v>0.8543890552864466</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9755348593271516</v>
+        <v>0.9313868165176831</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07543092636308062</v>
+        <v>0.2124923364087156</v>
       </c>
       <c r="H11" t="n">
-        <v>1.579374173729589</v>
+        <v>1.2963314658979</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1260893800224258</v>
+        <v>0.7863383426320553</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2881343144314081</v>
+        <v>0.4551178417233982</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2071115885552675</v>
+        <v>0.6207280921777267</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2304483181080435</v>
+        <v>0.7281403102655226</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2746469121673874</v>
+        <v>0.4609689104578699</v>
       </c>
       <c r="N11" t="n">
-        <v>1.003708567607437</v>
+        <v>1.010447202939558</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2863391998158383</v>
+        <v>0.4805933113132544</v>
       </c>
       <c r="P11" t="n">
-        <v>199.1690758481918</v>
+        <v>197.097698710454</v>
       </c>
       <c r="Q11" t="n">
-        <v>317.4000308604072</v>
+        <v>315.3286537226694</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9884768172106255</v>
+        <v>0.9672493218413484</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7622284905432992</v>
+        <v>0.8047133383266376</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9462783881652455</v>
+        <v>0.9261650410189027</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9793696183744061</v>
+        <v>0.8476386946788829</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9742922495029656</v>
+        <v>0.9282285736796807</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07705557637192526</v>
+        <v>0.2190039356499099</v>
       </c>
       <c r="H12" t="n">
-        <v>1.589979178574089</v>
+        <v>1.305882805822168</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1397319421453425</v>
+        <v>0.8223834184495693</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2955303219584443</v>
+        <v>0.4762165960554486</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2176310005661352</v>
+        <v>0.6493000072525089</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2321505260219594</v>
+        <v>0.7428035452873022</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2775888621179266</v>
+        <v>0.4679785632375802</v>
       </c>
       <c r="N12" t="n">
-        <v>1.003788443656781</v>
+        <v>1.01076734624394</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2894063946664479</v>
+        <v>0.4879013795237787</v>
       </c>
       <c r="P12" t="n">
-        <v>199.1264566928319</v>
+        <v>197.0373311566459</v>
       </c>
       <c r="Q12" t="n">
-        <v>317.3574117050474</v>
+        <v>315.2682861688614</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9882179334900562</v>
+        <v>0.9663053338964497</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7607589082638389</v>
+        <v>0.8033623061899683</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9413390513035724</v>
+        <v>0.9231804809981189</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9788959519915682</v>
+        <v>0.8413886152856844</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9731326845568909</v>
+        <v>0.9253116733654926</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07878673300342266</v>
+        <v>0.2253163873841123</v>
       </c>
       <c r="H13" t="n">
-        <v>1.599806282043645</v>
+        <v>1.314917163941008</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1525793439454716</v>
+        <v>0.8556258378445405</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3023155953073051</v>
+        <v>0.4957516842291304</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2274473895755408</v>
+        <v>0.6756885506082506</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2336696513029227</v>
+        <v>0.7564768064169501</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2806897450984319</v>
+        <v>0.4746750334535326</v>
       </c>
       <c r="N13" t="n">
-        <v>1.003873556112858</v>
+        <v>1.011077698445003</v>
       </c>
       <c r="O13" t="n">
-        <v>0.292639288655146</v>
+        <v>0.4948829323404285</v>
       </c>
       <c r="P13" t="n">
-        <v>199.0820213183873</v>
+        <v>196.9804993967038</v>
       </c>
       <c r="Q13" t="n">
-        <v>317.3129763306028</v>
+        <v>315.2114544089193</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9879524947097795</v>
+        <v>0.9654006050103332</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7594020624490025</v>
+        <v>0.8020928824820195</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9367176921152705</v>
+        <v>0.9204349556651701</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9784624923188688</v>
+        <v>0.8356211787938563</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9720559831685244</v>
+        <v>0.9226252589642463</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08056172334936529</v>
+        <v>0.2313663136114664</v>
       </c>
       <c r="H14" t="n">
-        <v>1.608879516255155</v>
+        <v>1.32340580612122</v>
       </c>
       <c r="I14" t="n">
-        <v>0.164599673803015</v>
+        <v>0.8862058576604701</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3085249073284616</v>
+        <v>0.5137782361040681</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2365622905657383</v>
+        <v>0.6999919395701419</v>
       </c>
       <c r="L14" t="n">
-        <v>0.235034591955004</v>
+        <v>0.7691812336528896</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2838339714505036</v>
+        <v>0.4810055234729289</v>
       </c>
       <c r="N14" t="n">
-        <v>1.003960823657059</v>
+        <v>1.011375143558247</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2959173712324712</v>
+        <v>0.5014829244258715</v>
       </c>
       <c r="P14" t="n">
-        <v>199.0374632773569</v>
+        <v>196.9275061025224</v>
       </c>
       <c r="Q14" t="n">
-        <v>317.2684182895723</v>
+        <v>315.1584611147379</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9876873743267283</v>
+        <v>0.9645414835184676</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7581531560114416</v>
+        <v>0.8009068062531478</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9324167552363436</v>
+        <v>0.9179150272276762</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9780665607864374</v>
+        <v>0.8303153477297454</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9710602674626652</v>
+        <v>0.9201574584355239</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08233458457159658</v>
+        <v>0.237111262983463</v>
       </c>
       <c r="H15" t="n">
-        <v>1.61723095935381</v>
+        <v>1.331337103325063</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1757865731273607</v>
+        <v>0.9142731497843157</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3141966285489642</v>
+        <v>0.5303620058694349</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2449916008381624</v>
+        <v>0.7223175778268753</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2362611285423075</v>
+        <v>0.7809567142335415</v>
       </c>
       <c r="M15" t="n">
-        <v>0.28694003654352</v>
+        <v>0.4869407181407845</v>
       </c>
       <c r="N15" t="n">
-        <v>1.004047986522719</v>
+        <v>1.011657594459682</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2991556679469384</v>
+        <v>0.5076707926182845</v>
       </c>
       <c r="P15" t="n">
-        <v>198.9939280678238</v>
+        <v>196.8784515678911</v>
       </c>
       <c r="Q15" t="n">
-        <v>317.2248830800392</v>
+        <v>315.1094065801066</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9874275823224629</v>
+        <v>0.9637317628275035</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7570067514864265</v>
+        <v>0.7998037582638844</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9284322234495505</v>
+        <v>0.9156068193773895</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9777054657682288</v>
+        <v>0.8254466907874929</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9701426335274499</v>
+        <v>0.9178955339077757</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08407181490035087</v>
+        <v>0.2425258689723605</v>
       </c>
       <c r="H16" t="n">
-        <v>1.624896971691294</v>
+        <v>1.338713190308336</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1861504908523361</v>
+        <v>0.9399822703500458</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3193693165256323</v>
+        <v>0.5455793553894763</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2527599036889842</v>
+        <v>0.7427807020473254</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2374241423223201</v>
+        <v>0.7918265192312098</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2899514009284157</v>
+        <v>0.4924691553512367</v>
       </c>
       <c r="N16" t="n">
-        <v>1.004133397592615</v>
+        <v>1.011923804001917</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3022952323480828</v>
+        <v>0.5134345868462282</v>
       </c>
       <c r="P16" t="n">
-        <v>198.9521678122027</v>
+        <v>196.8332937962388</v>
       </c>
       <c r="Q16" t="n">
-        <v>317.1831228244182</v>
+        <v>315.0642488084543</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9871766848798987</v>
+        <v>0.9629732372918414</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7559569074013552</v>
+        <v>0.7987821029840244</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9247542705563665</v>
+        <v>0.9134963446322701</v>
       </c>
       <c r="E17" t="n">
-        <v>0.977376754648002</v>
+        <v>0.8209884912439809</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9692994953895255</v>
+        <v>0.9158261986782612</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08574956725405405</v>
+        <v>0.2475981327220222</v>
       </c>
       <c r="H17" t="n">
-        <v>1.631917283922253</v>
+        <v>1.34554500386905</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1957169852915666</v>
+        <v>0.9634890137598594</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3240781049986197</v>
+        <v>0.559513789770126</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2598975564600083</v>
+        <v>0.761501514053136</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2384657414068349</v>
+        <v>0.8018449268826003</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2928302703855154</v>
+        <v>0.4975923358754857</v>
       </c>
       <c r="N17" t="n">
-        <v>1.004215884423047</v>
+        <v>1.012173182260216</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3052966612380525</v>
+        <v>0.5187758717718401</v>
       </c>
       <c r="P17" t="n">
-        <v>198.9126484790976</v>
+        <v>196.7918965594211</v>
       </c>
       <c r="Q17" t="n">
-        <v>317.143603491313</v>
+        <v>315.0228515716366</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.98693705457809</v>
+        <v>0.9622665361431388</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7549973638587706</v>
+        <v>0.7978390068147241</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9213702321937383</v>
+        <v>0.9115700002387392</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9770778747062122</v>
+        <v>0.8169157110080122</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9685267517159938</v>
+        <v>0.9139368278625299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08735197618564547</v>
+        <v>0.2523238465574554</v>
       </c>
       <c r="H18" t="n">
-        <v>1.638333756009808</v>
+        <v>1.35185149229572</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2045189969318518</v>
+        <v>0.9849448892600916</v>
       </c>
       <c r="J18" t="n">
-        <v>0.328359561688422</v>
+        <v>0.5722435674283524</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2664392793101369</v>
+        <v>0.778594228344222</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2394060188074516</v>
+        <v>0.8110560314828368</v>
       </c>
       <c r="M18" t="n">
-        <v>0.295553677333992</v>
+        <v>0.5023184712485252</v>
       </c>
       <c r="N18" t="n">
-        <v>1.004294666988025</v>
+        <v>1.012405522363899</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3081360092585554</v>
+        <v>0.5237032085121589</v>
       </c>
       <c r="P18" t="n">
-        <v>198.8756192377912</v>
+        <v>196.7540838222503</v>
       </c>
       <c r="Q18" t="n">
-        <v>317.1065742500066</v>
+        <v>314.9850388344657</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9867101733279794</v>
+        <v>0.961610793253134</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7541219315979759</v>
+        <v>0.7969710822254314</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9182652671810626</v>
+        <v>0.9098139741868788</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9768062610387576</v>
+        <v>0.8131997808614253</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9678199484333292</v>
+        <v>0.9122139343042051</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08886913214982713</v>
+        <v>0.2567088022823363</v>
       </c>
       <c r="H19" t="n">
-        <v>1.644187775568737</v>
+        <v>1.357655308020745</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2125951282446844</v>
+        <v>1.004503736821518</v>
       </c>
       <c r="J19" t="n">
-        <v>0.332250428859371</v>
+        <v>0.5838579835811794</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2724227785520277</v>
+        <v>0.7941808602013487</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2402447617747531</v>
+        <v>0.819503781727335</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2981092621000346</v>
+        <v>0.5066643882120948</v>
       </c>
       <c r="N19" t="n">
-        <v>1.004369258083952</v>
+        <v>1.012621109067463</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3108003905588782</v>
+        <v>0.528234140158156</v>
       </c>
       <c r="P19" t="n">
-        <v>198.8411808333381</v>
+        <v>196.7196258030794</v>
       </c>
       <c r="Q19" t="n">
-        <v>317.0721358455535</v>
+        <v>314.9505808152949</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9864969805240967</v>
+        <v>0.9610046246403754</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7533244270314161</v>
+        <v>0.796174255099502</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9154225535243161</v>
+        <v>0.9082152158436199</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9765599270131192</v>
+        <v>0.8098152606426221</v>
       </c>
       <c r="F20" t="n">
-        <v>0.967174831869422</v>
+        <v>0.9106451147648892</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09029475341105245</v>
+        <v>0.2607622545870032</v>
       </c>
       <c r="H20" t="n">
-        <v>1.649520692277494</v>
+        <v>1.362983694680887</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2199891338721051</v>
+        <v>1.022310916100112</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3357791650324294</v>
+        <v>0.59443655334653</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2778840639842597</v>
+        <v>0.8083736189422634</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2409985408925559</v>
+        <v>0.827241239663403</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3004908541221387</v>
+        <v>0.51064885644345</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00443934886879</v>
+        <v>1.012820397378507</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3132833718839384</v>
+        <v>0.5323882354511064</v>
       </c>
       <c r="P20" t="n">
-        <v>198.8093518440148</v>
+        <v>196.6882923774965</v>
       </c>
       <c r="Q20" t="n">
-        <v>317.0403068562302</v>
+        <v>314.919247389712</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9862977982604595</v>
+        <v>0.9604461292084504</v>
       </c>
       <c r="C21" t="n">
-        <v>0.752598927027412</v>
+        <v>0.7954444048681493</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9128258982679991</v>
+        <v>0.9067615512734353</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9763365333916153</v>
+        <v>0.8067364956382608</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9665869049375344</v>
+        <v>0.9092183792223674</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09162668612514512</v>
+        <v>0.2644969161119204</v>
       </c>
       <c r="H21" t="n">
-        <v>1.654372114144889</v>
+        <v>1.367864206538594</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2267431323031863</v>
+        <v>1.038502021980099</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3389792797993136</v>
+        <v>0.6040594624397639</v>
       </c>
       <c r="K21" t="n">
-        <v>0.28286120605125</v>
+        <v>0.8212809756105336</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2416750292379096</v>
+        <v>0.8343078754075698</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3026990025175919</v>
+        <v>0.5142926366495251</v>
       </c>
       <c r="N21" t="n">
-        <v>1.004504833448616</v>
+        <v>1.01300401231503</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3155855257280834</v>
+        <v>0.5361871389242189</v>
       </c>
       <c r="P21" t="n">
-        <v>198.7800654329748</v>
+        <v>196.6598513741279</v>
       </c>
       <c r="Q21" t="n">
-        <v>317.0110204451903</v>
+        <v>314.8908063863434</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9861126598162415</v>
+        <v>0.959932949521824</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7519396497247525</v>
+        <v>0.7947771893772724</v>
       </c>
       <c r="D22" t="n">
-        <v>0.91045745333952</v>
+        <v>0.905441007795535</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9761342833679542</v>
+        <v>0.8039395296326889</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9660519357971844</v>
+        <v>0.9079223349368224</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09286470775411461</v>
+        <v>0.2679285510393666</v>
       </c>
       <c r="H22" t="n">
-        <v>1.658780704503466</v>
+        <v>1.372325879598333</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2329035470490926</v>
+        <v>1.053210407744151</v>
       </c>
       <c r="J22" t="n">
-        <v>0.341876512419311</v>
+        <v>0.612801587795339</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2873900297342018</v>
+        <v>0.8330059977697449</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2422865662491778</v>
+        <v>0.8407562848572528</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3047371125316288</v>
+        <v>0.5176181517676584</v>
       </c>
       <c r="N22" t="n">
-        <v>1.004565700882332</v>
+        <v>1.013172728924332</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3177104023048872</v>
+        <v>0.5396542281056964</v>
       </c>
       <c r="P22" t="n">
-        <v>198.7532232006898</v>
+        <v>196.6340698692298</v>
       </c>
       <c r="Q22" t="n">
-        <v>316.9841782129052</v>
+        <v>314.8650248814453</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9859411843278849</v>
+        <v>0.9594625138153204</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7513412363938249</v>
+        <v>0.7941683210846695</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9083004100541693</v>
+        <v>0.904242522372731</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9759510342830011</v>
+        <v>0.801400917200326</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9655655192824419</v>
+        <v>0.9067460183093212</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0940113651343276</v>
+        <v>0.2710743567749131</v>
       </c>
       <c r="H23" t="n">
-        <v>1.662782297202819</v>
+        <v>1.376397384674549</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2385140981338356</v>
+        <v>1.066559294945671</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3445015564954503</v>
+        <v>0.6207362098353376</v>
       </c>
       <c r="K23" t="n">
-        <v>0.291507827314643</v>
+        <v>0.8436478706420908</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2428321559655222</v>
+        <v>0.8466394694844281</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3066127282653602</v>
+        <v>0.5206480162018415</v>
       </c>
       <c r="N23" t="n">
-        <v>1.004622076385353</v>
+        <v>1.013327392718251</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3196658668834633</v>
+        <v>0.5428130801415268</v>
       </c>
       <c r="P23" t="n">
-        <v>198.7286791966726</v>
+        <v>196.6107242329886</v>
       </c>
       <c r="Q23" t="n">
-        <v>316.9596342088881</v>
+        <v>314.8416792452041</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9857830877704256</v>
+        <v>0.9590321792192107</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7507985511173779</v>
+        <v>0.7936134636066133</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9063393529575613</v>
+        <v>0.9031558886247212</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9757854152322986</v>
+        <v>0.7990984358756927</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9651241290484426</v>
+        <v>0.9056793726269289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09506855754202562</v>
+        <v>0.2739520062006074</v>
       </c>
       <c r="H24" t="n">
-        <v>1.666411236145256</v>
+        <v>1.380107719185194</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2436148817367143</v>
+        <v>1.07866236358176</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3468740502410756</v>
+        <v>0.6279327865290536</v>
       </c>
       <c r="K24" t="n">
-        <v>0.29524445134468</v>
+        <v>0.8532975750554066</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2433254057344007</v>
+        <v>0.8519900169673978</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3083318951098404</v>
+        <v>0.5234042474040571</v>
       </c>
       <c r="N24" t="n">
-        <v>1.004674053335751</v>
+        <v>1.013468872585465</v>
       </c>
       <c r="O24" t="n">
-        <v>0.321458222219679</v>
+        <v>0.5456866498122057</v>
       </c>
       <c r="P24" t="n">
-        <v>198.7063139786293</v>
+        <v>196.5896046955763</v>
       </c>
       <c r="Q24" t="n">
-        <v>316.9372689908448</v>
+        <v>314.8205597077917</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9856376337030156</v>
+        <v>0.9586392243991112</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7503068120226631</v>
+        <v>0.7931085728915486</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9045575737863911</v>
+        <v>0.9021712254092887</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9756356162072793</v>
+        <v>0.7970123054801171</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9647236602306843</v>
+        <v>0.90471285905586</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0960412095605508</v>
+        <v>0.2765796968920031</v>
       </c>
       <c r="H25" t="n">
-        <v>1.669699497735864</v>
+        <v>1.38348392572164</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2482493566818734</v>
+        <v>1.089629671105234</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3490199220381381</v>
+        <v>0.6344531422966484</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2986346518802857</v>
+        <v>0.8620414067009411</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2437657602533737</v>
+        <v>0.8568543548685514</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3099051622037794</v>
+        <v>0.5259084491544161</v>
       </c>
       <c r="N25" t="n">
-        <v>1.004721873851063</v>
+        <v>1.013598063211251</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3230984665509188</v>
+        <v>0.5482974606154899</v>
       </c>
       <c r="P25" t="n">
-        <v>198.6859558267339</v>
+        <v>196.5705125297212</v>
       </c>
       <c r="Q25" t="n">
-        <v>316.9169108389494</v>
+        <v>314.8014675419367</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9855041667091059</v>
+        <v>0.9582809595785439</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7498615446512009</v>
+        <v>0.79264963151768</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9029407143881291</v>
+        <v>0.9012795810859916</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9755001529410602</v>
+        <v>0.7951232280191228</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9643606577071464</v>
+        <v>0.9038376465298057</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0969337039633834</v>
+        <v>0.2789754153967951</v>
       </c>
       <c r="H26" t="n">
-        <v>1.6726770026991</v>
+        <v>1.386552868801931</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2524548690665361</v>
+        <v>1.099560922056724</v>
       </c>
       <c r="J26" t="n">
-        <v>0.350960434017307</v>
+        <v>0.6403575944557041</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3017076785309337</v>
+        <v>0.8699592582562143</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2441615963001311</v>
+        <v>0.8612722320710491</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3113417799836434</v>
+        <v>0.5281812334765361</v>
       </c>
       <c r="N26" t="n">
-        <v>1.004765753410705</v>
+        <v>1.013715848905684</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3245962441238804</v>
+        <v>0.5506670020715146</v>
       </c>
       <c r="P26" t="n">
-        <v>198.6674559968839</v>
+        <v>196.5532632358013</v>
       </c>
       <c r="Q26" t="n">
-        <v>316.8984110090994</v>
+        <v>314.7842182480168</v>
       </c>
     </row>
   </sheetData>
